--- a/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
+++ b/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\sed-biome\data_entry_spreadsheets\output_spreadsheets_noPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\Documents\repositories\marinegeo.github.io\assets\projects\sed-biome\data-entry-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AF83C2-F8E9-466E-AB58-FAC87D55CB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E72E3E-33B7-4BCF-8374-8DA153F4A4AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15555" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="minicore_and_syringe_metadata" sheetId="12" r:id="rId3"/>
     <sheet name="teabag_decomposition_data" sheetId="4" r:id="rId4"/>
     <sheet name="sedimentation_data" sheetId="11" r:id="rId5"/>
-    <sheet name="glossary" sheetId="7" r:id="rId6"/>
+    <sheet name="frame_fertilizer_presence" sheetId="13" r:id="rId6"/>
+    <sheet name="glossary" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="coverType">[1]Vocab!$B$41:$B$44</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="254">
   <si>
     <t>sheet</t>
   </si>
@@ -924,6 +925,9 @@
   <si>
     <t>Site17-F4</t>
   </si>
+  <si>
+    <t>fertilizer_presence_or_absence</t>
+  </si>
 </sst>
 </file>
 
@@ -932,7 +936,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1100,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1898,7 +1908,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5367,6 +5377,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278A01B0-B36D-4504-BD73-6282E601F507}">
+  <sheetPr>
+    <tabColor rgb="FF97C8EB"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="40" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weight, in grams of the tea bags. Please refer to the protocol for instructions for weighing the tea bags." sqref="C1" xr:uid="{C5DAC4B8-3427-456C-82DC-FFB974350E36}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Any additional notes regarding observations, context, or concerns about the data." sqref="E1" xr:uid="{A73C333D-4BCC-4732-84A5-57BE19A0E312}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The full name of the person processing the sample (no initials; ONLY one name per sample)" sqref="D1" xr:uid="{57A1826B-6D17-4179-A634-2808C86E022C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scientific name using standard scientific nomenclature. If the species cannot be identified to species, report genus or higher." sqref="C1" xr:uid="{F762F62A-D055-4116-85E2-30CD43C58642}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of your site. Site numbers can be found in the map that you received in the package or on the MarineGEO protocol website: https://marinegeo.github.io/projects/sed-biome" sqref="A1" xr:uid="{F81D9790-F552-496A-B55C-BD7177AFB5BA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ID of the frame as indicated on the boyant chain and map (SiteX-C/FX)" sqref="B1" xr:uid="{F18DAF34-2768-40B7-B0A1-AAD1ABCF3A59}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF97C8EB"/>

--- a/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
+++ b/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\Documents\repositories\marinegeo.github.io\assets\projects\sed-biome\data-entry-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E72E3E-33B7-4BCF-8374-8DA153F4A4AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B619EE2F-6714-419C-95E1-868131B8DD80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15555" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="5100" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="257">
   <si>
     <t>sheet</t>
   </si>
@@ -928,6 +928,15 @@
   <si>
     <t>fertilizer_presence_or_absence</t>
   </si>
+  <si>
+    <t>frame_fertilizer_presence</t>
+  </si>
+  <si>
+    <t>Indicate whether the sausages from the fertilised frames (with a red label) still contain fertilizer (presence) or not (absence).</t>
+  </si>
+  <si>
+    <t>presence; absence</t>
+  </si>
 </sst>
 </file>
 
@@ -936,30 +945,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1173,93 +1161,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,21 +1229,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1290,29 +1245,57 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1908,7 +1891,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1927,7 +1910,7 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1935,19 +1918,19 @@
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="32">
         <v>17</v>
       </c>
     </row>
@@ -1955,73 +1938,73 @@
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:B1993 A10:B10 A3:B6 C1:Z1993">
-    <cfRule type="containsBlanks" dxfId="10" priority="9">
+    <cfRule type="containsBlanks" dxfId="14" priority="9">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsBlanks" dxfId="9" priority="7">
+    <cfRule type="containsBlanks" dxfId="13" priority="7">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="containsBlanks" dxfId="8" priority="6">
+    <cfRule type="containsBlanks" dxfId="12" priority="6">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsBlanks" dxfId="7" priority="5">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="containsBlanks" dxfId="5" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2067,53 +2050,53 @@
     <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="39" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2121,301 +2104,301 @@
       <c r="A2" s="1">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="10"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="J14" s="10"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="J18" s="10"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="J20" s="10"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="J23" s="10"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="J26" s="10"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="J27" s="10"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="J28" s="10"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="J29" s="10"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="J30" s="10"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="J31" s="10"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="J32" s="10"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="J33" s="10"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="J34" s="10"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="J35" s="10"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="J36" s="10"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="J37" s="10"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="J38" s="10"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="J39" s="10"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="J40" s="10"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="J41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="J41" s="10"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="J42" s="10"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="J43" s="10"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="J44" s="10"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="J45" s="10"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="J46" s="10"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="J47" s="10"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="J48" s="10"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="J49" s="10"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="J50" s="10"/>
       <c r="M50" s="2"/>
     </row>
   </sheetData>
@@ -2464,25 +2447,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2723,66 +2706,66 @@
     <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="49">
-        <v>17</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="36">
+        <v>17</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="49" t="str">
+      <c r="I2" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F2,1),REGEXEXTRACT(F2,""[\d]+""),""-"",MID(F2,FIND(""
  "",F2) + 1 + 1,FIND(""
  "",F2) + 2 - (FIND(""
@@ -2792,27 +2775,27 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="49">
-        <v>17</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="36">
+        <v>17</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="49" t="str">
+      <c r="I3" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F3,1),REGEXEXTRACT(F3,""[\d]+""),""-"",MID(F3,FIND(""
  "",F3) + 1 + 1,FIND(""
  "",F3) + 2 - (FIND(""
@@ -2822,27 +2805,27 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="49">
-        <v>17</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="36">
+        <v>17</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="36">
         <v>1</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="49" t="str">
+      <c r="I4" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F4,1),REGEXEXTRACT(F4,""[\d]+""),""-"",MID(F4,FIND(""
  "",F4) + 1 + 1,FIND(""
  "",F4) + 2 - (FIND(""
@@ -2852,27 +2835,27 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="49">
-        <v>17</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="36">
+        <v>17</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="36">
         <v>1</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="49" t="str">
+      <c r="I5" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F5,1),REGEXEXTRACT(F5,""[\d]+""),""-"",MID(F5,FIND(""
  "",F5) + 1 + 1,FIND(""
  "",F5) + 2 - (FIND(""
@@ -2882,27 +2865,27 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="49">
-        <v>17</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="36">
+        <v>17</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="36">
         <v>12</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="49" t="str">
+      <c r="I6" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F6,1),REGEXEXTRACT(F6,""[\d]+""),""-"",MID(F6,FIND(""
  "",F6) + 1 + 1,FIND(""
  "",F6) + 2 - (FIND(""
@@ -2912,27 +2895,27 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="49">
-        <v>17</v>
-      </c>
-      <c r="D7" s="49" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="36">
+        <v>17</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="36">
         <v>12</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="49" t="str">
+      <c r="I7" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F7,1),REGEXEXTRACT(F7,""[\d]+""),""-"",MID(F7,FIND(""
  "",F7) + 1 + 1,FIND(""
  "",F7) + 2 - (FIND(""
@@ -2942,27 +2925,27 @@
       <c r="J7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="49">
-        <v>17</v>
-      </c>
-      <c r="D8" s="49" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="36">
+        <v>17</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="36">
         <v>12</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="49" t="str">
+      <c r="I8" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F8,1),REGEXEXTRACT(F8,""[\d]+""),""-"",MID(F8,FIND(""
  "",F8) + 1 + 1,FIND(""
  "",F8) + 2 - (FIND(""
@@ -2972,27 +2955,27 @@
       <c r="J8"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="49">
-        <v>17</v>
-      </c>
-      <c r="D9" s="49" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="36">
+        <v>17</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="36">
         <v>12</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="49" t="str">
+      <c r="I9" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F9,1),REGEXEXTRACT(F9,""[\d]+""),""-"",MID(F9,FIND(""
  "",F9) + 1 + 1,FIND(""
  "",F9) + 2 - (FIND(""
@@ -3002,27 +2985,27 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="49">
-        <v>17</v>
-      </c>
-      <c r="D10" s="49" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="36">
+        <v>17</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="36">
         <v>8</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="49" t="str">
+      <c r="I10" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F10,1),REGEXEXTRACT(F10,""[\d]+""),""-"",MID(F10,FIND(""
  "",F10) + 1 + 1,FIND(""
  "",F10) + 2 - (FIND(""
@@ -3032,27 +3015,27 @@
       <c r="J10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="49">
-        <v>17</v>
-      </c>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="36">
+        <v>17</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="36">
         <v>8</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="49" t="str">
+      <c r="I11" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F11,1),REGEXEXTRACT(F11,""[\d]+""),""-"",MID(F11,FIND(""
  "",F11) + 1 + 1,FIND(""
  "",F11) + 2 - (FIND(""
@@ -3062,27 +3045,27 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="49">
-        <v>17</v>
-      </c>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="36">
+        <v>17</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="36">
         <v>8</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I12" s="49" t="str">
+      <c r="I12" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F12,1),REGEXEXTRACT(F12,""[\d]+""),""-"",MID(F12,FIND(""
  "",F12) + 1 + 1,FIND(""
  "",F12) + 2 - (FIND(""
@@ -3092,27 +3075,27 @@
       <c r="J12"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="49">
-        <v>17</v>
-      </c>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="36">
+        <v>17</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="36">
         <v>8</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="I13" s="49" t="str">
+      <c r="I13" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F13,1),REGEXEXTRACT(F13,""[\d]+""),""-"",MID(F13,FIND(""
  "",F13) + 1 + 1,FIND(""
  "",F13) + 2 - (FIND(""
@@ -3122,27 +3105,27 @@
       <c r="J13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="49">
-        <v>17</v>
-      </c>
-      <c r="D14" s="49" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="36">
+        <v>17</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="36">
         <v>11</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="49" t="str">
+      <c r="I14" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F14,1),REGEXEXTRACT(F14,""[\d]+""),""-"",MID(F14,FIND(""
  "",F14) + 1 + 1,FIND(""
  "",F14) + 2 - (FIND(""
@@ -3152,27 +3135,27 @@
       <c r="J14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="49">
-        <v>17</v>
-      </c>
-      <c r="D15" s="49" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="36">
+        <v>17</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="36">
         <v>11</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="I15" s="49" t="str">
+      <c r="I15" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F15,1),REGEXEXTRACT(F15,""[\d]+""),""-"",MID(F15,FIND(""
  "",F15) + 1 + 1,FIND(""
  "",F15) + 2 - (FIND(""
@@ -3182,27 +3165,27 @@
       <c r="J15"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="49">
-        <v>17</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="36">
+        <v>17</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="36">
         <v>11</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="49" t="str">
+      <c r="I16" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F16,1),REGEXEXTRACT(F16,""[\d]+""),""-"",MID(F16,FIND(""
  "",F16) + 1 + 1,FIND(""
  "",F16) + 2 - (FIND(""
@@ -3212,27 +3195,27 @@
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="49">
-        <v>17</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="36">
+        <v>17</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="36">
         <v>11</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="49" t="str">
+      <c r="I17" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F17,1),REGEXEXTRACT(F17,""[\d]+""),""-"",MID(F17,FIND(""
  "",F17) + 1 + 1,FIND(""
  "",F17) + 2 - (FIND(""
@@ -3242,27 +3225,27 @@
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="49">
-        <v>17</v>
-      </c>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="36">
+        <v>17</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="36">
         <v>7</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="49" t="str">
+      <c r="I18" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F18,1),REGEXEXTRACT(F18,""[\d]+""),""-"",MID(F18,FIND(""
  "",F18) + 1 + 1,FIND(""
  "",F18) + 2 - (FIND(""
@@ -3272,27 +3255,27 @@
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="49">
-        <v>17</v>
-      </c>
-      <c r="D19" s="49" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="36">
+        <v>17</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="36">
         <v>7</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="49" t="str">
+      <c r="I19" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F19,1),REGEXEXTRACT(F19,""[\d]+""),""-"",MID(F19,FIND(""
  "",F19) + 1 + 1,FIND(""
  "",F19) + 2 - (FIND(""
@@ -3302,27 +3285,27 @@
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="49">
-        <v>17</v>
-      </c>
-      <c r="D20" s="49" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="36">
+        <v>17</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="36">
         <v>7</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="49" t="str">
+      <c r="I20" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F20,1),REGEXEXTRACT(F20,""[\d]+""),""-"",MID(F20,FIND(""
  "",F20) + 1 + 1,FIND(""
  "",F20) + 2 - (FIND(""
@@ -3332,27 +3315,27 @@
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="49">
-        <v>17</v>
-      </c>
-      <c r="D21" s="49" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="36">
+        <v>17</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="36">
         <v>7</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="49" t="str">
+      <c r="I21" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F21,1),REGEXEXTRACT(F21,""[\d]+""),""-"",MID(F21,FIND(""
  "",F21) + 1 + 1,FIND(""
  "",F21) + 2 - (FIND(""
@@ -3362,27 +3345,27 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="49">
-        <v>17</v>
-      </c>
-      <c r="D22" s="49" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="36">
+        <v>17</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="36">
         <v>10</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="49" t="str">
+      <c r="I22" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F22,1),REGEXEXTRACT(F22,""[\d]+""),""-"",MID(F22,FIND(""
  "",F22) + 1 + 1,FIND(""
  "",F22) + 2 - (FIND(""
@@ -3392,27 +3375,27 @@
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="49">
-        <v>17</v>
-      </c>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="36">
+        <v>17</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="36">
         <v>10</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="49" t="str">
+      <c r="I23" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F23,1),REGEXEXTRACT(F23,""[\d]+""),""-"",MID(F23,FIND(""
  "",F23) + 1 + 1,FIND(""
  "",F23) + 2 - (FIND(""
@@ -3422,27 +3405,27 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="49">
-        <v>17</v>
-      </c>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="36">
+        <v>17</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="36">
         <v>10</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="49" t="str">
+      <c r="I24" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F24,1),REGEXEXTRACT(F24,""[\d]+""),""-"",MID(F24,FIND(""
  "",F24) + 1 + 1,FIND(""
  "",F24) + 2 - (FIND(""
@@ -3452,27 +3435,27 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="49">
-        <v>17</v>
-      </c>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="36">
+        <v>17</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="36">
         <v>10</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="I25" s="49" t="str">
+      <c r="I25" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F25,1),REGEXEXTRACT(F25,""[\d]+""),""-"",MID(F25,FIND(""
  "",F25) + 1 + 1,FIND(""
  "",F25) + 2 - (FIND(""
@@ -3482,27 +3465,27 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="49">
-        <v>17</v>
-      </c>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="36">
+        <v>17</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="36">
         <v>14</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="49" t="str">
+      <c r="I26" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F26,1),REGEXEXTRACT(F26,""[\d]+""),""-"",MID(F26,FIND(""
  "",F26) + 1 + 1,FIND(""
  "",F26) + 2 - (FIND(""
@@ -3512,27 +3495,27 @@
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="49">
-        <v>17</v>
-      </c>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="36">
+        <v>17</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="36">
         <v>14</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="49" t="str">
+      <c r="I27" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F27,1),REGEXEXTRACT(F27,""[\d]+""),""-"",MID(F27,FIND(""
  "",F27) + 1 + 1,FIND(""
  "",F27) + 2 - (FIND(""
@@ -3542,27 +3525,27 @@
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="49">
-        <v>17</v>
-      </c>
-      <c r="D28" s="49" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="36">
+        <v>17</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="36">
         <v>14</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="49" t="str">
+      <c r="I28" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F28,1),REGEXEXTRACT(F28,""[\d]+""),""-"",MID(F28,FIND(""
  "",F28) + 1 + 1,FIND(""
  "",F28) + 2 - (FIND(""
@@ -3572,27 +3555,27 @@
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="49">
-        <v>17</v>
-      </c>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="36">
+        <v>17</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="36">
         <v>14</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="I29" s="49" t="str">
+      <c r="I29" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F29,1),REGEXEXTRACT(F29,""[\d]+""),""-"",MID(F29,FIND(""
  "",F29) + 1 + 1,FIND(""
  "",F29) + 2 - (FIND(""
@@ -3602,27 +3585,27 @@
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="49">
-        <v>17</v>
-      </c>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="36">
+        <v>17</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="36">
         <v>6</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="49" t="str">
+      <c r="I30" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F30,1),REGEXEXTRACT(F30,""[\d]+""),""-"",MID(F30,FIND(""
  "",F30) + 1 + 1,FIND(""
  "",F30) + 2 - (FIND(""
@@ -3632,27 +3615,27 @@
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="49">
-        <v>17</v>
-      </c>
-      <c r="D31" s="49" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="36">
+        <v>17</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="36">
         <v>6</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="I31" s="49" t="str">
+      <c r="I31" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F31,1),REGEXEXTRACT(F31,""[\d]+""),""-"",MID(F31,FIND(""
  "",F31) + 1 + 1,FIND(""
  "",F31) + 2 - (FIND(""
@@ -3662,27 +3645,27 @@
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="49">
-        <v>17</v>
-      </c>
-      <c r="D32" s="49" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="36">
+        <v>17</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="36">
         <v>6</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="49" t="str">
+      <c r="I32" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F32,1),REGEXEXTRACT(F32,""[\d]+""),""-"",MID(F32,FIND(""
  "",F32) + 1 + 1,FIND(""
  "",F32) + 2 - (FIND(""
@@ -3692,27 +3675,27 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="49">
-        <v>17</v>
-      </c>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="36">
+        <v>17</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="36">
         <v>6</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="I33" s="49" t="str">
+      <c r="I33" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F33,1),REGEXEXTRACT(F33,""[\d]+""),""-"",MID(F33,FIND(""
  "",F33) + 1 + 1,FIND(""
  "",F33) + 2 - (FIND(""
@@ -3722,27 +3705,27 @@
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="49">
-        <v>17</v>
-      </c>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="36">
+        <v>17</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="36">
         <v>5</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="49" t="str">
+      <c r="I34" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F34,1),REGEXEXTRACT(F34,""[\d]+""),""-"",MID(F34,FIND(""
  "",F34) + 1 + 1,FIND(""
  "",F34) + 2 - (FIND(""
@@ -3752,27 +3735,27 @@
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="49">
-        <v>17</v>
-      </c>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="36">
+        <v>17</v>
+      </c>
+      <c r="D35" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="36">
         <v>5</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="I35" s="49" t="str">
+      <c r="I35" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F35,1),REGEXEXTRACT(F35,""[\d]+""),""-"",MID(F35,FIND(""
  "",F35) + 1 + 1,FIND(""
  "",F35) + 2 - (FIND(""
@@ -3782,27 +3765,27 @@
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="49">
-        <v>17</v>
-      </c>
-      <c r="D36" s="49" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="36">
+        <v>17</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="36">
         <v>5</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="I36" s="49" t="str">
+      <c r="I36" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F36,1),REGEXEXTRACT(F36,""[\d]+""),""-"",MID(F36,FIND(""
  "",F36) + 1 + 1,FIND(""
  "",F36) + 2 - (FIND(""
@@ -3812,27 +3795,27 @@
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="49">
-        <v>17</v>
-      </c>
-      <c r="D37" s="49" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="36">
+        <v>17</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="36">
         <v>5</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="I37" s="49" t="str">
+      <c r="I37" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F37,1),REGEXEXTRACT(F37,""[\d]+""),""-"",MID(F37,FIND(""
  "",F37) + 1 + 1,FIND(""
  "",F37) + 2 - (FIND(""
@@ -3842,27 +3825,27 @@
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="49">
-        <v>17</v>
-      </c>
-      <c r="D38" s="49" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="36">
+        <v>17</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="36">
         <v>16</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="49" t="str">
+      <c r="I38" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F38,1),REGEXEXTRACT(F38,""[\d]+""),""-"",MID(F38,FIND(""
  "",F38) + 1 + 1,FIND(""
  "",F38) + 2 - (FIND(""
@@ -3872,27 +3855,27 @@
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="49">
-        <v>17</v>
-      </c>
-      <c r="D39" s="49" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="36">
+        <v>17</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="36">
         <v>16</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="I39" s="49" t="str">
+      <c r="I39" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F39,1),REGEXEXTRACT(F39,""[\d]+""),""-"",MID(F39,FIND(""
  "",F39) + 1 + 1,FIND(""
  "",F39) + 2 - (FIND(""
@@ -3902,27 +3885,27 @@
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="49">
-        <v>17</v>
-      </c>
-      <c r="D40" s="49" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="36">
+        <v>17</v>
+      </c>
+      <c r="D40" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="36">
         <v>16</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="I40" s="49" t="str">
+      <c r="I40" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F40,1),REGEXEXTRACT(F40,""[\d]+""),""-"",MID(F40,FIND(""
  "",F40) + 1 + 1,FIND(""
  "",F40) + 2 - (FIND(""
@@ -3932,27 +3915,27 @@
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="49">
-        <v>17</v>
-      </c>
-      <c r="D41" s="49" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="36">
+        <v>17</v>
+      </c>
+      <c r="D41" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="36">
         <v>16</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="I41" s="49" t="str">
+      <c r="I41" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F41,1),REGEXEXTRACT(F41,""[\d]+""),""-"",MID(F41,FIND(""
  "",F41) + 1 + 1,FIND(""
  "",F41) + 2 - (FIND(""
@@ -3962,27 +3945,27 @@
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="49">
-        <v>17</v>
-      </c>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="36">
+        <v>17</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="36">
         <v>3</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="I42" s="49" t="str">
+      <c r="I42" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F42,1),REGEXEXTRACT(F42,""[\d]+""),""-"",MID(F42,FIND(""
  "",F42) + 1 + 1,FIND(""
  "",F42) + 2 - (FIND(""
@@ -3992,27 +3975,27 @@
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="49">
-        <v>17</v>
-      </c>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="36">
+        <v>17</v>
+      </c>
+      <c r="D43" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="36">
         <v>3</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="I43" s="49" t="str">
+      <c r="I43" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F43,1),REGEXEXTRACT(F43,""[\d]+""),""-"",MID(F43,FIND(""
  "",F43) + 1 + 1,FIND(""
  "",F43) + 2 - (FIND(""
@@ -4022,27 +4005,27 @@
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="49">
-        <v>17</v>
-      </c>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="36">
+        <v>17</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="36">
         <v>3</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="I44" s="49" t="str">
+      <c r="I44" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F44,1),REGEXEXTRACT(F44,""[\d]+""),""-"",MID(F44,FIND(""
  "",F44) + 1 + 1,FIND(""
  "",F44) + 2 - (FIND(""
@@ -4052,27 +4035,27 @@
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="49">
-        <v>17</v>
-      </c>
-      <c r="D45" s="49" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="36">
+        <v>17</v>
+      </c>
+      <c r="D45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="36">
         <v>3</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="I45" s="49" t="str">
+      <c r="I45" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F45,1),REGEXEXTRACT(F45,""[\d]+""),""-"",MID(F45,FIND(""
  "",F45) + 1 + 1,FIND(""
  "",F45) + 2 - (FIND(""
@@ -4082,27 +4065,27 @@
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="49">
-        <v>17</v>
-      </c>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="36">
+        <v>17</v>
+      </c>
+      <c r="D46" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="36">
         <v>13</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="I46" s="49" t="str">
+      <c r="I46" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F46,1),REGEXEXTRACT(F46,""[\d]+""),""-"",MID(F46,FIND(""
  "",F46) + 1 + 1,FIND(""
  "",F46) + 2 - (FIND(""
@@ -4112,27 +4095,27 @@
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="49">
-        <v>17</v>
-      </c>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="36">
+        <v>17</v>
+      </c>
+      <c r="D47" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="36">
         <v>13</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="I47" s="49" t="str">
+      <c r="I47" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F47,1),REGEXEXTRACT(F47,""[\d]+""),""-"",MID(F47,FIND(""
  "",F47) + 1 + 1,FIND(""
  "",F47) + 2 - (FIND(""
@@ -4142,27 +4125,27 @@
       <c r="J47"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="49">
-        <v>17</v>
-      </c>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="36">
+        <v>17</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="36">
         <v>13</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="I48" s="49" t="str">
+      <c r="I48" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F48,1),REGEXEXTRACT(F48,""[\d]+""),""-"",MID(F48,FIND(""
  "",F48) + 1 + 1,FIND(""
  "",F48) + 2 - (FIND(""
@@ -4172,27 +4155,27 @@
       <c r="J48"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="49">
-        <v>17</v>
-      </c>
-      <c r="D49" s="49" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="36">
+        <v>17</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="36">
         <v>13</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H49" s="48" t="s">
+      <c r="H49" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="I49" s="49" t="str">
+      <c r="I49" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F49,1),REGEXEXTRACT(F49,""[\d]+""),""-"",MID(F49,FIND(""
  "",F49) + 1 + 1,FIND(""
  "",F49) + 2 - (FIND(""
@@ -4202,27 +4185,27 @@
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="49">
-        <v>17</v>
-      </c>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="36">
+        <v>17</v>
+      </c>
+      <c r="D50" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="36">
         <v>4</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="H50" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="I50" s="49" t="str">
+      <c r="I50" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F50,1),REGEXEXTRACT(F50,""[\d]+""),""-"",MID(F50,FIND(""
  "",F50) + 1 + 1,FIND(""
  "",F50) + 2 - (FIND(""
@@ -4232,25 +4215,25 @@
       <c r="J50"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="C51" s="49">
-        <v>17</v>
-      </c>
-      <c r="D51" s="49" t="s">
+      <c r="C51" s="36">
+        <v>17</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="36">
         <v>4</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="I51" s="49" t="str">
+      <c r="I51" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F51,1),REGEXEXTRACT(F51,""[\d]+""),""-"",MID(F51,FIND(""
  "",F51) + 1 + 1,FIND(""
  "",F51) + 2 - (FIND(""
@@ -4260,25 +4243,25 @@
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="C52" s="49">
-        <v>17</v>
-      </c>
-      <c r="D52" s="49" t="s">
+      <c r="C52" s="36">
+        <v>17</v>
+      </c>
+      <c r="D52" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="36">
         <v>4</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="I52" s="49" t="str">
+      <c r="I52" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F52,1),REGEXEXTRACT(F52,""[\d]+""),""-"",MID(F52,FIND(""
  "",F52) + 1 + 1,FIND(""
  "",F52) + 2 - (FIND(""
@@ -4288,25 +4271,25 @@
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="C53" s="49">
-        <v>17</v>
-      </c>
-      <c r="D53" s="49" t="s">
+      <c r="C53" s="36">
+        <v>17</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="36">
         <v>4</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="I53" s="49" t="str">
+      <c r="I53" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F53,1),REGEXEXTRACT(F53,""[\d]+""),""-"",MID(F53,FIND(""
  "",F53) + 1 + 1,FIND(""
  "",F53) + 2 - (FIND(""
@@ -4316,25 +4299,25 @@
       <c r="J53"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="C54" s="49">
-        <v>17</v>
-      </c>
-      <c r="D54" s="49" t="s">
+      <c r="C54" s="36">
+        <v>17</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E54" s="36">
         <v>2</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H54" s="48" t="s">
+      <c r="H54" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I54" s="49" t="str">
+      <c r="I54" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F54,1),REGEXEXTRACT(F54,""[\d]+""),""-"",MID(F54,FIND(""
  "",F54) + 1 + 1,FIND(""
  "",F54) + 2 - (FIND(""
@@ -4344,25 +4327,25 @@
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="C55" s="49">
-        <v>17</v>
-      </c>
-      <c r="D55" s="49" t="s">
+      <c r="C55" s="36">
+        <v>17</v>
+      </c>
+      <c r="D55" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E55" s="36">
         <v>2</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H55" s="48" t="s">
+      <c r="H55" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="I55" s="49" t="str">
+      <c r="I55" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F55,1),REGEXEXTRACT(F55,""[\d]+""),""-"",MID(F55,FIND(""
  "",F55) + 1 + 1,FIND(""
  "",F55) + 2 - (FIND(""
@@ -4372,25 +4355,25 @@
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="C56" s="49">
-        <v>17</v>
-      </c>
-      <c r="D56" s="49" t="s">
+      <c r="C56" s="36">
+        <v>17</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="36">
         <v>2</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="49" t="str">
+      <c r="I56" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F56,1),REGEXEXTRACT(F56,""[\d]+""),""-"",MID(F56,FIND(""
  "",F56) + 1 + 1,FIND(""
  "",F56) + 2 - (FIND(""
@@ -4400,25 +4383,25 @@
       <c r="J56"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="C57" s="49">
-        <v>17</v>
-      </c>
-      <c r="D57" s="49" t="s">
+      <c r="C57" s="36">
+        <v>17</v>
+      </c>
+      <c r="D57" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="36">
         <v>2</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G57" s="49" t="s">
+      <c r="G57" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="H57" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="I57" s="49" t="str">
+      <c r="I57" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F57,1),REGEXEXTRACT(F57,""[\d]+""),""-"",MID(F57,FIND(""
  "",F57) + 1 + 1,FIND(""
  "",F57) + 2 - (FIND(""
@@ -4428,25 +4411,25 @@
       <c r="J57"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="C58" s="49">
-        <v>17</v>
-      </c>
-      <c r="D58" s="49" t="s">
+      <c r="C58" s="36">
+        <v>17</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="36">
         <v>15</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="49" t="s">
+      <c r="G58" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="I58" s="49" t="str">
+      <c r="I58" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F58,1),REGEXEXTRACT(F58,""[\d]+""),""-"",MID(F58,FIND(""
  "",F58) + 1 + 1,FIND(""
  "",F58) + 2 - (FIND(""
@@ -4456,25 +4439,25 @@
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="C59" s="49">
-        <v>17</v>
-      </c>
-      <c r="D59" s="49" t="s">
+      <c r="C59" s="36">
+        <v>17</v>
+      </c>
+      <c r="D59" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="36">
         <v>15</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="I59" s="49" t="str">
+      <c r="I59" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F59,1),REGEXEXTRACT(F59,""[\d]+""),""-"",MID(F59,FIND(""
  "",F59) + 1 + 1,FIND(""
  "",F59) + 2 - (FIND(""
@@ -4484,25 +4467,25 @@
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="C60" s="49">
-        <v>17</v>
-      </c>
-      <c r="D60" s="49" t="s">
+      <c r="C60" s="36">
+        <v>17</v>
+      </c>
+      <c r="D60" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="36">
         <v>15</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="G60" s="49" t="s">
+      <c r="G60" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H60" s="48" t="s">
+      <c r="H60" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="I60" s="49" t="str">
+      <c r="I60" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F60,1),REGEXEXTRACT(F60,""[\d]+""),""-"",MID(F60,FIND(""
  "",F60) + 1 + 1,FIND(""
  "",F60) + 2 - (FIND(""
@@ -4512,25 +4495,25 @@
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="C61" s="49">
-        <v>17</v>
-      </c>
-      <c r="D61" s="49" t="s">
+      <c r="C61" s="36">
+        <v>17</v>
+      </c>
+      <c r="D61" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="36">
         <v>15</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="G61" s="49" t="s">
+      <c r="G61" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H61" s="48" t="s">
+      <c r="H61" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="I61" s="49" t="str">
+      <c r="I61" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F61,1),REGEXEXTRACT(F61,""[\d]+""),""-"",MID(F61,FIND(""
  "",F61) + 1 + 1,FIND(""
  "",F61) + 2 - (FIND(""
@@ -4540,25 +4523,25 @@
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="C62" s="49">
-        <v>17</v>
-      </c>
-      <c r="D62" s="49" t="s">
+      <c r="C62" s="36">
+        <v>17</v>
+      </c>
+      <c r="D62" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="36">
         <v>9</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H62" s="48" t="s">
+      <c r="H62" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="I62" s="49" t="str">
+      <c r="I62" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F62,1),REGEXEXTRACT(F62,""[\d]+""),""-"",MID(F62,FIND(""
  "",F62) + 1 + 1,FIND(""
  "",F62) + 2 - (FIND(""
@@ -4568,25 +4551,25 @@
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="C63" s="49">
-        <v>17</v>
-      </c>
-      <c r="D63" s="49" t="s">
+      <c r="C63" s="36">
+        <v>17</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="36">
         <v>9</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="I63" s="49" t="str">
+      <c r="I63" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F63,1),REGEXEXTRACT(F63,""[\d]+""),""-"",MID(F63,FIND(""
  "",F63) + 1 + 1,FIND(""
  "",F63) + 2 - (FIND(""
@@ -4596,25 +4579,25 @@
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="C64" s="49">
-        <v>17</v>
-      </c>
-      <c r="D64" s="49" t="s">
+      <c r="C64" s="36">
+        <v>17</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="36">
         <v>9</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H64" s="48" t="s">
+      <c r="H64" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="I64" s="49" t="str">
+      <c r="I64" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F64,1),REGEXEXTRACT(F64,""[\d]+""),""-"",MID(F64,FIND(""
  "",F64) + 1 + 1,FIND(""
  "",F64) + 2 - (FIND(""
@@ -4624,25 +4607,25 @@
       <c r="J64"/>
     </row>
     <row r="65" spans="3:10">
-      <c r="C65" s="49">
-        <v>17</v>
-      </c>
-      <c r="D65" s="49" t="s">
+      <c r="C65" s="36">
+        <v>17</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="36">
         <v>9</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G65" s="49" t="s">
+      <c r="G65" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="I65" s="49" t="str">
+      <c r="I65" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F65,1),REGEXEXTRACT(F65,""[\d]+""),""-"",MID(F65,FIND(""
  "",F65) + 1 + 1,FIND(""
  "",F65) + 2 - (FIND(""
@@ -4698,96 +4681,96 @@
     <col min="15" max="15" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="40" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" s="29" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="46">
-        <v>17</v>
-      </c>
-      <c r="E2" s="46">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="33">
+        <v>17</v>
+      </c>
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="35" t="s">
         <v>151</v>
       </c>
       <c r="K2">
         <f>I2*1000</f>
         <v>0</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="25">
         <f>3.14*3.4*3.4</f>
         <v>36.298400000000001</v>
       </c>
-      <c r="M2" s="33" t="e">
+      <c r="M2" s="24" t="e">
         <f>K2/(L2*C3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="46">
-        <v>17</v>
-      </c>
-      <c r="E3" s="46">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="33">
+        <v>17</v>
+      </c>
+      <c r="E3" s="33">
         <v>2</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="35" t="s">
         <v>151</v>
       </c>
       <c r="K3"/>
@@ -4795,19 +4778,19 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="46">
-        <v>17</v>
-      </c>
-      <c r="E4" s="46">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="33">
+        <v>17</v>
+      </c>
+      <c r="E4" s="33">
         <v>3</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="35" t="s">
         <v>151</v>
       </c>
       <c r="K4"/>
@@ -4815,19 +4798,19 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="46">
-        <v>17</v>
-      </c>
-      <c r="E5" s="46">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="33">
+        <v>17</v>
+      </c>
+      <c r="E5" s="33">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="35" t="s">
         <v>151</v>
       </c>
       <c r="K5"/>
@@ -4835,19 +4818,19 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="46">
-        <v>17</v>
-      </c>
-      <c r="E6" s="46">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="33">
+        <v>17</v>
+      </c>
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="35" t="s">
         <v>151</v>
       </c>
       <c r="K6"/>
@@ -4855,19 +4838,19 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:15" ht="15.75">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="46">
-        <v>17</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="33">
+        <v>17</v>
+      </c>
+      <c r="E7" s="33">
         <v>6</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="35" t="s">
         <v>151</v>
       </c>
       <c r="K7"/>
@@ -4875,387 +4858,387 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:15" ht="18">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="F8"/>
       <c r="K8"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="F9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="F10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="F11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="F12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="F13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="F14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="F15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="F16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="F17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="F18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="F19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="F20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="F21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="F22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="F23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="F24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="F25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="F26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="F27"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="F28"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="F29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="F30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="F31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="F32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="F33"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="F34"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="F35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="F36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="F37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
       <c r="F38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="F39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="F40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="F41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
       <c r="F42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="F43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
       <c r="F44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="F45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="F46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="F47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
       <c r="F48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
       <c r="F49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
       <c r="F50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -5383,7 +5366,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5396,20 +5379,20 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="40" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="29" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5478,7 +5461,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weight, in grams of the tea bags. Please refer to the protocol for instructions for weighing the tea bags." sqref="C1" xr:uid="{C5DAC4B8-3427-456C-82DC-FFB974350E36}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Any additional notes regarding observations, context, or concerns about the data." sqref="E1" xr:uid="{A73C333D-4BCC-4732-84A5-57BE19A0E312}"/>
@@ -5496,23 +5479,23 @@
   <sheetPr>
     <tabColor rgb="FF97C8EB"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="40.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="20"/>
+    <col min="1" max="3" width="40.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="22" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5532,19 +5515,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="56.1" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="56.1" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="56.1" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -5560,7 +5543,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="4" spans="1:6" ht="56.1" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -5576,7 +5559,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="5" spans="1:6" ht="56.1" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -5592,7 +5575,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" ht="100.5" customHeight="1">
+    <row r="6" spans="1:6" ht="100.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -5608,7 +5591,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="7" spans="1:6" ht="56.1" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -5626,7 +5609,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="8" spans="1:6" ht="56.1" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5644,7 +5627,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="76.5" customHeight="1">
+    <row r="9" spans="1:6" ht="76.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -5662,7 +5645,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="10" spans="1:6" ht="56.1" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -5678,7 +5661,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="56.1" customHeight="1">
+    <row r="11" spans="1:6" s="12" customFormat="1" ht="56.1" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -5696,7 +5679,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="12" spans="1:6" ht="56.1" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -5712,19 +5695,19 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:6" ht="56.1" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" s="18" customFormat="1" ht="105.75" customHeight="1">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="105.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>136</v>
       </c>
@@ -5740,7 +5723,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" s="31" customFormat="1" ht="76.5" customHeight="1">
+    <row r="15" spans="1:6" ht="76.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>136</v>
       </c>
@@ -5752,7 +5735,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" s="31" customFormat="1" ht="76.5" customHeight="1">
+    <row r="16" spans="1:6" ht="76.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>136</v>
       </c>
@@ -5764,7 +5747,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="49.5" customHeight="1">
+    <row r="17" spans="1:6" ht="49.5" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -5782,7 +5765,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="56.1" customHeight="1">
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="56.1" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>136</v>
       </c>
@@ -5800,7 +5783,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" ht="56.1" customHeight="1">
+    <row r="19" spans="1:6" s="12" customFormat="1" ht="56.1" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>136</v>
       </c>
@@ -5818,7 +5801,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
+    <row r="20" spans="1:6" ht="56.1" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>136</v>
       </c>
@@ -5836,11 +5819,11 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="60" customHeight="1">
+    <row r="21" spans="1:6" ht="60" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -5854,11 +5837,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="60" customHeight="1">
+    <row r="22" spans="1:6" ht="60" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -5872,7 +5855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="31" customFormat="1" ht="62.25" customHeight="1">
+    <row r="23" spans="1:6" ht="62.25" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>136</v>
       </c>
@@ -5886,7 +5869,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="60" customHeight="1">
+    <row r="24" spans="1:6" ht="60" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>136</v>
       </c>
@@ -5902,7 +5885,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="59.25" customHeight="1">
+    <row r="25" spans="1:6" ht="59.25" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>136</v>
       </c>
@@ -5916,7 +5899,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="48" customHeight="1">
+    <row r="26" spans="1:6" ht="48" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>136</v>
       </c>
@@ -5934,11 +5917,11 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="63" customHeight="1">
+    <row r="27" spans="1:6" ht="63" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5950,11 +5933,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="78.75" customHeight="1">
+    <row r="28" spans="1:6" ht="78.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5966,11 +5949,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="53.1" customHeight="1">
+    <row r="29" spans="1:6" ht="53.1" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -5982,347 +5965,347 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="47.1" customHeight="1">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:6" ht="47.1" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="90.75" customHeight="1">
+      <c r="A31" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A32" s="41" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="51" customHeight="1">
+      <c r="A32" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="51" customHeight="1">
+      <c r="A33" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-    </row>
-    <row r="34" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" ht="51" customHeight="1">
+      <c r="A34" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-    </row>
-    <row r="35" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A35" s="41" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="51" customHeight="1">
+      <c r="A35" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-    </row>
-    <row r="36" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="51" customHeight="1">
+      <c r="A36" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-    </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A37" s="41" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" ht="51" customHeight="1">
+      <c r="A37" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" ht="51" customHeight="1">
+      <c r="A38" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" s="35" customFormat="1" ht="56.1" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="56.1" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A41" s="10" t="s">
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" s="38" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A42" s="10" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" s="38" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" s="28" customFormat="1" ht="54" customHeight="1">
-      <c r="A43" s="10" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="54" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A44" s="10" t="s">
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" s="38" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" ht="50.1" customHeight="1">
       <c r="A52" s="6" t="s">
@@ -6376,7 +6359,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" ht="50.1" customHeight="1">
+    <row r="55" spans="1:6" ht="85.5" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>117</v>
       </c>
@@ -6412,7 +6395,7 @@
       <c r="A57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -6468,7 +6451,7 @@
       <c r="A60" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -6488,7 +6471,7 @@
       <c r="A61" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="27" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -6504,7 +6487,7 @@
       <c r="A62" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -6524,7 +6507,7 @@
       <c r="A63" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -6544,7 +6527,7 @@
       <c r="A64" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -6591,147 +6574,241 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6" ht="84" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="67.5" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A73" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A68" s="7" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A74" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A75" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A70" s="7" t="s">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A76" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A71" s="7" t="s">
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A77" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A72" s="7" t="s">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A78" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A73" s="7" t="s">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A79" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="C79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5 B10:B12">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The sheet in which the field occurs" sqref="A1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the field being defined" sqref="B1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The field definition" sqref="C1" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The type of entry that should occupy the field (e.g., text, decimal, integer, date, etc…)" sqref="D1" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The format the field should follow" sqref="E1" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The units the field should contain" sqref="F1" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Latitude in decimal degrees to five decimal places" sqref="B17:B26" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The frame at the location the sample came from: 1:16" sqref="B57" xr:uid="{C3FBA85C-CD9B-4BD6-A1F6-DC5A974F2955}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique number of the sampled tea bag (1-64)." sqref="B60" xr:uid="{71709EE2-7347-4053-8297-B2F55B2BF556}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Name(s) of data collector(s)" sqref="B35" xr:uid="{95A169F1-633F-4E38-8BCE-BB264F757CA0}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="The name of the specific location where the sample was collected; e.g., Curlew Cay" sqref="B32:B34" xr:uid="{291C9273-1D57-4BFC-A76B-3F61669EA188}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Full name of the data entry person" sqref="B36" xr:uid="{FF46A50E-051A-43DD-9EA8-0CD1E0632004}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The sheet in which the field occurs" sqref="A1" xr:uid="{5537AA4D-29EC-46FD-8DF6-BE399030339F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the field being defined" sqref="B1" xr:uid="{96455143-FB64-4AC7-AFC6-6FBB25AB7420}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The field definition" sqref="C1" xr:uid="{6E1EB2FB-5968-4B28-9175-E41903AC4176}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The type of entry that should occupy the field (e.g., text, decimal, integer, date, etc…)" sqref="D1" xr:uid="{5A75BD37-A747-4605-8416-8893EAF6E6EB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The format the field should follow" sqref="E1" xr:uid="{9A36611B-56C0-46D4-9563-61A054B93BC5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The units the field should contain" sqref="F1" xr:uid="{BAEE545D-9113-4932-A797-D148A1E69964}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Latitude in decimal degrees to five decimal places" sqref="B17:B26" xr:uid="{57E6CD77-44CF-4D74-8EEB-E6530E41B64C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The frame at the location the sample came from: 1:16" sqref="B57" xr:uid="{93389FAF-F82E-4107-A2A1-60AAE2E96B44}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique number of the sampled tea bag (1-64)." sqref="B60" xr:uid="{1E8AF151-E501-474F-AA76-B450B0948EBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Name(s) of data collector(s)" sqref="B35" xr:uid="{F9A20F38-ECAE-4DB9-94BF-E5C17E2B3A43}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="The name of the specific location where the sample was collected; e.g., Curlew Cay" sqref="B32:B34" xr:uid="{B71D4E92-CC6B-41C2-8B24-651391AB87C6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Full name of the data entry person" sqref="B36" xr:uid="{0E27984C-9A6F-4081-971E-32F9EB001D0E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
+++ b/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\Documents\repositories\marinegeo.github.io\assets\projects\sed-biome\data-entry-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B619EE2F-6714-419C-95E1-868131B8DD80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625AD46-56F8-49F7-9E1A-FA3B22B7DECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="5100" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="256">
   <si>
     <t>sheet</t>
   </si>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t>Site 17 - C - B1</t>
-  </si>
-  <si>
-    <t>36.2984</t>
   </si>
   <si>
     <t>Site 17 - C - B2</t>
@@ -1267,35 +1264,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1891,7 +1860,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1974,37 +1943,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:B1993 A10:B10 A3:B6 C1:Z1993">
-    <cfRule type="containsBlanks" dxfId="14" priority="9">
+    <cfRule type="containsBlanks" dxfId="10" priority="9">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsBlanks" dxfId="13" priority="7">
+    <cfRule type="containsBlanks" dxfId="9" priority="7">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="6">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsBlanks" dxfId="11" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2474,7 +2443,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
         <v>147</v>
@@ -2485,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
         <v>147</v>
@@ -2496,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
         <v>147</v>
@@ -2507,7 +2476,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
@@ -2518,7 +2487,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
         <v>130</v>
@@ -2529,7 +2498,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>130</v>
@@ -2540,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
         <v>130</v>
@@ -2551,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>130</v>
@@ -2562,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -2573,7 +2542,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
@@ -2584,7 +2553,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
@@ -2595,7 +2564,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
         <v>130</v>
@@ -2751,19 +2720,19 @@
         <v>17</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="36">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>159</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>160</v>
       </c>
       <c r="I2" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F2,1),REGEXEXTRACT(F2,""[\d]+""),""-"",MID(F2,FIND(""
@@ -2781,19 +2750,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="36">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>159</v>
-      </c>
       <c r="H3" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F3,1),REGEXEXTRACT(F3,""[\d]+""),""-"",MID(F3,FIND(""
@@ -2811,19 +2780,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="36">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>162</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>163</v>
       </c>
       <c r="I4" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F4,1),REGEXEXTRACT(F4,""[\d]+""),""-"",MID(F4,FIND(""
@@ -2841,19 +2810,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="36">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F5,1),REGEXEXTRACT(F5,""[\d]+""),""-"",MID(F5,FIND(""
@@ -2871,19 +2840,19 @@
         <v>17</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="36">
         <v>12</v>
       </c>
       <c r="F6" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>165</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>166</v>
       </c>
       <c r="I6" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F6,1),REGEXEXTRACT(F6,""[\d]+""),""-"",MID(F6,FIND(""
@@ -2901,19 +2870,19 @@
         <v>17</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="36">
         <v>12</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F7,1),REGEXEXTRACT(F7,""[\d]+""),""-"",MID(F7,FIND(""
@@ -2931,19 +2900,19 @@
         <v>17</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="36">
         <v>12</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F8,1),REGEXEXTRACT(F8,""[\d]+""),""-"",MID(F8,FIND(""
@@ -2961,19 +2930,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="36">
         <v>12</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F9,1),REGEXEXTRACT(F9,""[\d]+""),""-"",MID(F9,FIND(""
@@ -2991,19 +2960,19 @@
         <v>17</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="36">
         <v>8</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>170</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>171</v>
       </c>
       <c r="I10" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F10,1),REGEXEXTRACT(F10,""[\d]+""),""-"",MID(F10,FIND(""
@@ -3021,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="36">
         <v>8</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F11,1),REGEXEXTRACT(F11,""[\d]+""),""-"",MID(F11,FIND(""
@@ -3051,19 +3020,19 @@
         <v>17</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="36">
         <v>8</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I12" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F12,1),REGEXEXTRACT(F12,""[\d]+""),""-"",MID(F12,FIND(""
@@ -3081,19 +3050,19 @@
         <v>17</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="36">
         <v>8</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I13" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F13,1),REGEXEXTRACT(F13,""[\d]+""),""-"",MID(F13,FIND(""
@@ -3111,19 +3080,19 @@
         <v>17</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="36">
         <v>11</v>
       </c>
       <c r="F14" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>176</v>
       </c>
       <c r="I14" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F14,1),REGEXEXTRACT(F14,""[\d]+""),""-"",MID(F14,FIND(""
@@ -3141,19 +3110,19 @@
         <v>17</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="36">
         <v>11</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I15" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F15,1),REGEXEXTRACT(F15,""[\d]+""),""-"",MID(F15,FIND(""
@@ -3171,19 +3140,19 @@
         <v>17</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="36">
         <v>11</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F16,1),REGEXEXTRACT(F16,""[\d]+""),""-"",MID(F16,FIND(""
@@ -3201,19 +3170,19 @@
         <v>17</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="36">
         <v>11</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I17" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F17,1),REGEXEXTRACT(F17,""[\d]+""),""-"",MID(F17,FIND(""
@@ -3231,19 +3200,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="36">
         <v>7</v>
       </c>
       <c r="F18" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>181</v>
       </c>
       <c r="I18" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F18,1),REGEXEXTRACT(F18,""[\d]+""),""-"",MID(F18,FIND(""
@@ -3261,19 +3230,19 @@
         <v>17</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="36">
         <v>7</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I19" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F19,1),REGEXEXTRACT(F19,""[\d]+""),""-"",MID(F19,FIND(""
@@ -3291,19 +3260,19 @@
         <v>17</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="36">
         <v>7</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I20" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F20,1),REGEXEXTRACT(F20,""[\d]+""),""-"",MID(F20,FIND(""
@@ -3321,19 +3290,19 @@
         <v>17</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="36">
         <v>7</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I21" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F21,1),REGEXEXTRACT(F21,""[\d]+""),""-"",MID(F21,FIND(""
@@ -3351,19 +3320,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="36">
         <v>10</v>
       </c>
       <c r="F22" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>185</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>186</v>
       </c>
       <c r="I22" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F22,1),REGEXEXTRACT(F22,""[\d]+""),""-"",MID(F22,FIND(""
@@ -3381,19 +3350,19 @@
         <v>17</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="36">
         <v>10</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F23,1),REGEXEXTRACT(F23,""[\d]+""),""-"",MID(F23,FIND(""
@@ -3411,19 +3380,19 @@
         <v>17</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="36">
         <v>10</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F24,1),REGEXEXTRACT(F24,""[\d]+""),""-"",MID(F24,FIND(""
@@ -3441,19 +3410,19 @@
         <v>17</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="36">
         <v>10</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I25" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F25,1),REGEXEXTRACT(F25,""[\d]+""),""-"",MID(F25,FIND(""
@@ -3471,19 +3440,19 @@
         <v>17</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="36">
         <v>14</v>
       </c>
       <c r="F26" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>190</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="I26" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F26,1),REGEXEXTRACT(F26,""[\d]+""),""-"",MID(F26,FIND(""
@@ -3501,19 +3470,19 @@
         <v>17</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="36">
         <v>14</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F27,1),REGEXEXTRACT(F27,""[\d]+""),""-"",MID(F27,FIND(""
@@ -3531,19 +3500,19 @@
         <v>17</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="36">
         <v>14</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I28" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F28,1),REGEXEXTRACT(F28,""[\d]+""),""-"",MID(F28,FIND(""
@@ -3561,19 +3530,19 @@
         <v>17</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="36">
         <v>14</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F29,1),REGEXEXTRACT(F29,""[\d]+""),""-"",MID(F29,FIND(""
@@ -3591,19 +3560,19 @@
         <v>17</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="36">
         <v>6</v>
       </c>
       <c r="F30" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="35" t="s">
         <v>195</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>196</v>
       </c>
       <c r="I30" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F30,1),REGEXEXTRACT(F30,""[\d]+""),""-"",MID(F30,FIND(""
@@ -3621,19 +3590,19 @@
         <v>17</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="36">
         <v>6</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I31" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F31,1),REGEXEXTRACT(F31,""[\d]+""),""-"",MID(F31,FIND(""
@@ -3651,19 +3620,19 @@
         <v>17</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="36">
         <v>6</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I32" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F32,1),REGEXEXTRACT(F32,""[\d]+""),""-"",MID(F32,FIND(""
@@ -3681,19 +3650,19 @@
         <v>17</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="36">
         <v>6</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I33" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F33,1),REGEXEXTRACT(F33,""[\d]+""),""-"",MID(F33,FIND(""
@@ -3711,19 +3680,19 @@
         <v>17</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="36">
         <v>5</v>
       </c>
       <c r="F34" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>201</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="I34" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F34,1),REGEXEXTRACT(F34,""[\d]+""),""-"",MID(F34,FIND(""
@@ -3741,19 +3710,19 @@
         <v>17</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="36">
         <v>5</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I35" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F35,1),REGEXEXTRACT(F35,""[\d]+""),""-"",MID(F35,FIND(""
@@ -3771,19 +3740,19 @@
         <v>17</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E36" s="36">
         <v>5</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I36" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F36,1),REGEXEXTRACT(F36,""[\d]+""),""-"",MID(F36,FIND(""
@@ -3801,19 +3770,19 @@
         <v>17</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" s="36">
         <v>5</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I37" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F37,1),REGEXEXTRACT(F37,""[\d]+""),""-"",MID(F37,FIND(""
@@ -3831,19 +3800,19 @@
         <v>17</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E38" s="36">
         <v>16</v>
       </c>
       <c r="F38" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>207</v>
       </c>
       <c r="I38" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F38,1),REGEXEXTRACT(F38,""[\d]+""),""-"",MID(F38,FIND(""
@@ -3861,19 +3830,19 @@
         <v>17</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E39" s="36">
         <v>16</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I39" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F39,1),REGEXEXTRACT(F39,""[\d]+""),""-"",MID(F39,FIND(""
@@ -3891,19 +3860,19 @@
         <v>17</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="36">
         <v>16</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I40" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F40,1),REGEXEXTRACT(F40,""[\d]+""),""-"",MID(F40,FIND(""
@@ -3921,19 +3890,19 @@
         <v>17</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" s="36">
         <v>16</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I41" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F41,1),REGEXEXTRACT(F41,""[\d]+""),""-"",MID(F41,FIND(""
@@ -3951,19 +3920,19 @@
         <v>17</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E42" s="36">
         <v>3</v>
       </c>
       <c r="F42" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="I42" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F42,1),REGEXEXTRACT(F42,""[\d]+""),""-"",MID(F42,FIND(""
@@ -3981,19 +3950,19 @@
         <v>17</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E43" s="36">
         <v>3</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I43" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F43,1),REGEXEXTRACT(F43,""[\d]+""),""-"",MID(F43,FIND(""
@@ -4011,19 +3980,19 @@
         <v>17</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E44" s="36">
         <v>3</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I44" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F44,1),REGEXEXTRACT(F44,""[\d]+""),""-"",MID(F44,FIND(""
@@ -4041,19 +4010,19 @@
         <v>17</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E45" s="36">
         <v>3</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I45" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F45,1),REGEXEXTRACT(F45,""[\d]+""),""-"",MID(F45,FIND(""
@@ -4071,19 +4040,19 @@
         <v>17</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E46" s="36">
         <v>13</v>
       </c>
       <c r="F46" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="35" t="s">
         <v>216</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>217</v>
       </c>
       <c r="I46" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F46,1),REGEXEXTRACT(F46,""[\d]+""),""-"",MID(F46,FIND(""
@@ -4101,19 +4070,19 @@
         <v>17</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="36">
         <v>13</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I47" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F47,1),REGEXEXTRACT(F47,""[\d]+""),""-"",MID(F47,FIND(""
@@ -4131,19 +4100,19 @@
         <v>17</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" s="36">
         <v>13</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I48" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F48,1),REGEXEXTRACT(F48,""[\d]+""),""-"",MID(F48,FIND(""
@@ -4161,19 +4130,19 @@
         <v>17</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E49" s="36">
         <v>13</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I49" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F49,1),REGEXEXTRACT(F49,""[\d]+""),""-"",MID(F49,FIND(""
@@ -4191,19 +4160,19 @@
         <v>17</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="36">
         <v>4</v>
       </c>
       <c r="F50" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>222</v>
       </c>
       <c r="I50" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F50,1),REGEXEXTRACT(F50,""[\d]+""),""-"",MID(F50,FIND(""
@@ -4219,19 +4188,19 @@
         <v>17</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E51" s="36">
         <v>4</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I51" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F51,1),REGEXEXTRACT(F51,""[\d]+""),""-"",MID(F51,FIND(""
@@ -4247,19 +4216,19 @@
         <v>17</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E52" s="36">
         <v>4</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I52" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F52,1),REGEXEXTRACT(F52,""[\d]+""),""-"",MID(F52,FIND(""
@@ -4275,19 +4244,19 @@
         <v>17</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="36">
         <v>4</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I53" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F53,1),REGEXEXTRACT(F53,""[\d]+""),""-"",MID(F53,FIND(""
@@ -4303,19 +4272,19 @@
         <v>17</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E54" s="36">
         <v>2</v>
       </c>
       <c r="F54" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>227</v>
       </c>
       <c r="I54" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F54,1),REGEXEXTRACT(F54,""[\d]+""),""-"",MID(F54,FIND(""
@@ -4331,19 +4300,19 @@
         <v>17</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E55" s="36">
         <v>2</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I55" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F55,1),REGEXEXTRACT(F55,""[\d]+""),""-"",MID(F55,FIND(""
@@ -4359,19 +4328,19 @@
         <v>17</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E56" s="36">
         <v>2</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I56" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F56,1),REGEXEXTRACT(F56,""[\d]+""),""-"",MID(F56,FIND(""
@@ -4387,19 +4356,19 @@
         <v>17</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" s="36">
         <v>2</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I57" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F57,1),REGEXEXTRACT(F57,""[\d]+""),""-"",MID(F57,FIND(""
@@ -4415,19 +4384,19 @@
         <v>17</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E58" s="36">
         <v>15</v>
       </c>
       <c r="F58" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="I58" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F58,1),REGEXEXTRACT(F58,""[\d]+""),""-"",MID(F58,FIND(""
@@ -4443,19 +4412,19 @@
         <v>17</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E59" s="36">
         <v>15</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I59" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F59,1),REGEXEXTRACT(F59,""[\d]+""),""-"",MID(F59,FIND(""
@@ -4471,19 +4440,19 @@
         <v>17</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E60" s="36">
         <v>15</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I60" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F60,1),REGEXEXTRACT(F60,""[\d]+""),""-"",MID(F60,FIND(""
@@ -4499,19 +4468,19 @@
         <v>17</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E61" s="36">
         <v>15</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I61" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F61,1),REGEXEXTRACT(F61,""[\d]+""),""-"",MID(F61,FIND(""
@@ -4527,19 +4496,19 @@
         <v>17</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E62" s="36">
         <v>9</v>
       </c>
       <c r="F62" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H62" s="35" t="s">
         <v>236</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H62" s="35" t="s">
-        <v>237</v>
       </c>
       <c r="I62" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F62,1),REGEXEXTRACT(F62,""[\d]+""),""-"",MID(F62,FIND(""
@@ -4555,19 +4524,19 @@
         <v>17</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="36">
         <v>9</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I63" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F63,1),REGEXEXTRACT(F63,""[\d]+""),""-"",MID(F63,FIND(""
@@ -4583,19 +4552,19 @@
         <v>17</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E64" s="36">
         <v>9</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I64" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F64,1),REGEXEXTRACT(F64,""[\d]+""),""-"",MID(F64,FIND(""
@@ -4611,19 +4580,19 @@
         <v>17</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E65" s="36">
         <v>9</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I65" s="36" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(F65,1),REGEXEXTRACT(F65,""[\d]+""),""-"",MID(F65,FIND(""
@@ -4663,8 +4632,8 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4741,9 +4710,7 @@
       <c r="F2" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>151</v>
-      </c>
+      <c r="G2" s="35"/>
       <c r="K2">
         <f>I2*1000</f>
         <v>0</v>
@@ -4768,11 +4735,9 @@
         <v>2</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="35" t="s">
         <v>151</v>
       </c>
+      <c r="G3" s="35"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -4788,11 +4753,9 @@
         <v>3</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>151</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G4" s="35"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -4808,11 +4771,9 @@
         <v>4</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G5" s="35"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -4828,11 +4789,9 @@
         <v>5</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>151</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G6" s="35"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -4848,11 +4807,9 @@
         <v>6</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G7" s="35"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -5387,7 +5344,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>56</v>
@@ -5401,7 +5358,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5409,7 +5366,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5417,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5425,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5433,7 +5390,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5441,7 +5398,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5449,7 +5406,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5457,7 +5414,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6575,7 +6532,7 @@
     </row>
     <row r="67" spans="1:6" ht="50.1" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
@@ -6587,7 +6544,7 @@
     </row>
     <row r="68" spans="1:6" ht="84" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>67</v>
@@ -6603,7 +6560,7 @@
     </row>
     <row r="69" spans="1:6" ht="50.1" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>63</v>
@@ -6619,25 +6576,25 @@
     </row>
     <row r="70" spans="1:6" ht="67.5" customHeight="1">
       <c r="A70" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="50.1" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>56</v>
@@ -6653,7 +6610,7 @@
     </row>
     <row r="72" spans="1:6" ht="50.1" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>51</v>

--- a/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
+++ b/assets/projects/sed-biome/data-entry-spreadsheets/SED-BIOME_site-17_Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\Documents\repositories\marinegeo.github.io\assets\projects\sed-biome\data-entry-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625AD46-56F8-49F7-9E1A-FA3B22B7DECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B2703-796F-4ED6-AB9C-7C89F8832EDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2775" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="258">
   <si>
     <t>sheet</t>
   </si>
@@ -933,6 +933,12 @@
   </si>
   <si>
     <t>presence; absence</t>
+  </si>
+  <si>
+    <t>weight_initial_jar_g</t>
+  </si>
+  <si>
+    <t>weight_initial_jar_and_dried_sediment_g</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1866,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4632,8 +4638,8 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4670,10 +4676,10 @@
         <v>92</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>95</v>
